--- a/VersionRecords/Version 5.2.0.8_beta 20161215/版本Bug和特性计划及评审表v5.2.0.8.xlsx
+++ b/VersionRecords/Version 5.2.0.8_beta 20161215/版本Bug和特性计划及评审表v5.2.0.8.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.2.0.7_beta 20161214\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.2.0.8_beta 20161215\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="01 版本5.2.0.7 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="01 版本5.2.0.8 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="02 定时器" sheetId="10" r:id="rId2"/>
     <sheet name="03 上线执行顺序" sheetId="8" r:id="rId3"/>
     <sheet name="041 配置文件（公测环境）" sheetId="6" r:id="rId4"/>
@@ -22,7 +22,7 @@
     <sheet name="05 数据修复" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.0.7 新特性|Fix Bug'!$A$1:$U$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.0.8 新特性|Fix Bug'!$A$1:$U$20</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="81">
   <si>
     <t>No</t>
   </si>
@@ -97,54 +97,6 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>重要</t>
-  </si>
-  <si>
-    <t>紧急</t>
-  </si>
-  <si>
-    <t>房东移动版1.1上线</t>
-  </si>
-  <si>
-    <t>New Features</t>
-  </si>
-  <si>
-    <t>房东移动版</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>野帝组</t>
-  </si>
-  <si>
-    <t>房源同步定时器</t>
-  </si>
-  <si>
-    <t>移动版房态图APP房源同步的定时器</t>
-  </si>
-  <si>
-    <t>极光推送区分移动版OR旧的APP</t>
-  </si>
-  <si>
-    <t>mogoroom-message</t>
-  </si>
-  <si>
-    <t>租客APP 推送区分旧版APP  还是移动版APP</t>
-  </si>
-  <si>
-    <t>mogoroom-renter</t>
-  </si>
-  <si>
-    <t>马丁组</t>
-  </si>
-  <si>
-    <t>租客支付回调消息区分移动版还是旧的APP</t>
-  </si>
-  <si>
-    <t>mogoroom-payapi</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -323,229 +275,11 @@
     <t>修正负责人</t>
   </si>
   <si>
-    <t>房东PC集中式房源录入优化</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>张飞</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>张勋</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过</t>
-  </si>
-  <si>
-    <t>能</t>
-  </si>
-  <si>
-    <t>房东PC分散式房源录入优化</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩淑芳</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>张勋</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>樊黎</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>许倩</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>配置文件名</t>
   </si>
   <si>
     <t>技术经理</t>
     <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQ组</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>400系统</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>mogoroom-bs</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>log4j.properties</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>####################### 400log #######################
-log4j.logger.TeleAPILog=DEBUG,teleAPILog
-log4j.appender.teleAPILog=org.apache.log4j.DailyRollingFileAppender
-log4j.appender.teleAPILog.file=/data/mogologs/teleAPILog/TeleAPILog.log
-log4j.appender.teleAPILog.layout=org.apache.log4j.PatternLayout
-log4j.appender.accountLog.layout.ConversionPattern=[%d{yyyy-MM-dd HH\:mm\:ss}]&lt;%p&gt;\: %C.%M(%L) | %m %n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加400API日志配置</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>公测环境</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>周云</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>周云</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>史欣欣</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>mogoroom-bs</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemconfig.properties</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>#400-conf
-sysconfig.tele_url = http://210.14.79.50
-sysconfig.tele_username = FA77F6F83B1BC85AB9AC707578A92CB8
-sysconfig.tele_password = 70A5579332F49374A09B3434341111EO2
-sysconfig.tele_generator_num = 4009006868</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加400API连接参数</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>公测环境</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>mogoroom-tasktracker</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemconfig.properties</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加400API连接参数</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>架构组</t>
-  </si>
-  <si>
-    <t>5.1.7</t>
-  </si>
-  <si>
-    <t>mogoroom-bs</t>
-  </si>
-  <si>
-    <t>systemconfig.properties</t>
-  </si>
-  <si>
-    <t>新增</t>
-  </si>
-  <si>
-    <t>#memcached-server
-memcached.memClientBiz1.host=
-memcached.memClientBiz1.port=
-memcached.memClientBiz1.weight=10
-memcached.memClientBiz2.host=
-memcached.memClientBiz2.port=
-memcached.memClientBiz2.weight=10
-memcached.memClientBiz3.host=
-memcached.memClientBiz3.port=
-memcached.memClientBiz3.weight=10
-memcached.memClientSearch1.host=
-memcached.memClientSearch1.port=
-memcached.memClientSearch1.weight=10
-memcached.memClientSearch2.host=
-memcached.memClientSearch2.port=
-memcached.memClientSearch2.weight=10</t>
-  </si>
-  <si>
-    <t>Memcached
-一致性Hash环
-配置</t>
-  </si>
-  <si>
-    <t>生产环境</t>
-  </si>
-  <si>
-    <t>九天</t>
-  </si>
-  <si>
-    <t>host,port请根据
-实际服务器情况配置</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>mogoroom-messages</t>
-  </si>
-  <si>
-    <t>host,port请根据
-实际服务器情况配置</t>
-  </si>
-  <si>
-    <t>mogoroom-partner</t>
-  </si>
-  <si>
-    <t>mogoroom-partnerpc</t>
-  </si>
-  <si>
-    <t>mogoroom-renterembed</t>
-  </si>
-  <si>
-    <t>mogoroom-renterpc</t>
-  </si>
-  <si>
-    <t>mogoroom-tasktracker</t>
-  </si>
-  <si>
-    <t>mogoda-tasktracker</t>
   </si>
 </sst>
 </file>
@@ -1226,6 +960,15 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1264,15 +1007,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1660,8 +1394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1756,269 +1490,119 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="51">
-        <v>1</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="54">
-        <v>42716</v>
-      </c>
-      <c r="I2" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="54">
-        <v>42716</v>
-      </c>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="54"/>
       <c r="K2" s="53"/>
       <c r="L2" s="62"/>
-      <c r="M2" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="O2" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="P2" s="54">
-        <v>42718</v>
-      </c>
-      <c r="Q2" s="62" t="s">
-        <v>100</v>
-      </c>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="62"/>
       <c r="R2" s="59"/>
       <c r="S2" s="59"/>
       <c r="T2" s="67"/>
       <c r="U2" s="68"/>
       <c r="V2" s="69"/>
     </row>
-    <row r="3" spans="1:22" s="46" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A3" s="51">
-        <v>2</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="54">
-        <v>42716</v>
-      </c>
-      <c r="I3" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="54">
-        <v>42716</v>
-      </c>
+    <row r="3" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
-      <c r="M3" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="O3" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="P3" s="54">
-        <v>42718</v>
-      </c>
-      <c r="Q3" s="62" t="s">
-        <v>100</v>
-      </c>
+      <c r="M3" s="53"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="62"/>
       <c r="R3" s="59"/>
       <c r="S3" s="59"/>
       <c r="T3" s="67"/>
       <c r="U3" s="70"/>
       <c r="V3" s="69"/>
     </row>
-    <row r="4" spans="1:22" s="46" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A4" s="51">
-        <v>3</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="54">
-        <v>42716</v>
-      </c>
-      <c r="I4" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="54">
-        <v>42716</v>
-      </c>
+    <row r="4" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="54"/>
       <c r="K4" s="53"/>
       <c r="L4" s="62"/>
-      <c r="M4" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="O4" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="P4" s="54">
-        <v>42718</v>
-      </c>
-      <c r="Q4" s="62" t="s">
-        <v>100</v>
-      </c>
+      <c r="M4" s="53"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="62"/>
       <c r="R4" s="59"/>
       <c r="S4" s="59"/>
       <c r="T4" s="67"/>
       <c r="U4" s="68"/>
       <c r="V4" s="69"/>
     </row>
-    <row r="5" spans="1:22" s="46" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A5" s="51">
-        <v>4</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="54">
-        <v>42716</v>
-      </c>
-      <c r="I5" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="54">
-        <v>42716</v>
-      </c>
+    <row r="5" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="54"/>
       <c r="K5" s="53"/>
       <c r="L5" s="62"/>
-      <c r="M5" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="O5" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="P5" s="54">
-        <v>42718</v>
-      </c>
-      <c r="Q5" s="62" t="s">
-        <v>100</v>
-      </c>
+      <c r="M5" s="53"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="62"/>
       <c r="R5" s="59"/>
       <c r="S5" s="59"/>
       <c r="T5" s="67"/>
       <c r="U5" s="70"/>
       <c r="V5" s="69"/>
     </row>
-    <row r="6" spans="1:22" s="46" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A6" s="51">
-        <v>5</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="54">
-        <v>42718</v>
-      </c>
-      <c r="I6" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="54">
-        <v>42718</v>
-      </c>
+    <row r="6" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
       <c r="K6" s="53"/>
       <c r="L6" s="62"/>
-      <c r="M6" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="O6" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="P6" s="54">
-        <v>42718</v>
-      </c>
-      <c r="Q6" s="62" t="s">
-        <v>100</v>
-      </c>
+      <c r="M6" s="53"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="62"/>
       <c r="R6" s="59"/>
       <c r="S6" s="59"/>
       <c r="T6" s="67"/>
@@ -2026,111 +1610,47 @@
       <c r="V6" s="69"/>
     </row>
     <row r="7" spans="1:22" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="51">
-        <v>6</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="54">
-        <v>42717</v>
-      </c>
-      <c r="I7" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="54">
-        <v>42717</v>
-      </c>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="53"/>
-      <c r="L7" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="M7" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="O7" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="P7" s="54">
-        <v>42718</v>
-      </c>
-      <c r="Q7" s="62" t="s">
-        <v>100</v>
-      </c>
+      <c r="L7" s="62"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="62"/>
       <c r="R7" s="59"/>
       <c r="S7" s="59"/>
       <c r="T7" s="67"/>
       <c r="U7" s="68"/>
       <c r="V7" s="69"/>
     </row>
-    <row r="8" spans="1:22" s="46" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A8" s="51">
-        <v>7</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="54">
-        <v>42717</v>
-      </c>
-      <c r="I8" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="54">
-        <v>42717</v>
-      </c>
+    <row r="8" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
       <c r="K8" s="53"/>
-      <c r="L8" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="M8" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="O8" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="P8" s="54">
-        <v>42718</v>
-      </c>
-      <c r="Q8" s="62" t="s">
-        <v>100</v>
-      </c>
+      <c r="L8" s="62"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="62"/>
       <c r="R8" s="59"/>
       <c r="S8" s="59"/>
       <c r="T8" s="67"/>
@@ -2743,7 +2263,7 @@
       <c r="S34" s="59"/>
       <c r="T34" s="59"/>
       <c r="U34" s="68" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
@@ -5829,55 +5349,55 @@
   <sheetData>
     <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="K1" s="38" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="M1" s="39" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="P1" s="31" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="R1" s="31" t="s">
         <v>20</v>
@@ -5971,69 +5491,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
+      <c r="A1" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="90">
+      <c r="A3" s="93">
         <v>1</v>
       </c>
-      <c r="B3" s="90" t="s">
-        <v>65</v>
+      <c r="B3" s="93" t="s">
+        <v>49</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="21" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="22" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="23"/>
@@ -6042,15 +5562,15 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="91"/>
-      <c r="B4" s="92"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="95"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="22" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="23"/>
@@ -6059,19 +5579,19 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="90">
+      <c r="A5" s="93">
         <v>2</v>
       </c>
-      <c r="B5" s="90" t="s">
-        <v>69</v>
+      <c r="B5" s="93" t="s">
+        <v>53</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="21" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="22" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="23"/>
@@ -6080,15 +5600,15 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="92"/>
-      <c r="B6" s="92"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="22" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="G6" s="22"/>
       <c r="H6" s="23"/>
@@ -6097,15 +5617,15 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="92"/>
-      <c r="B7" s="92"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="22" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="23"/>
@@ -6114,15 +5634,15 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="92"/>
-      <c r="B8" s="92"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="22" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="23"/>
@@ -6131,8 +5651,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="92"/>
-      <c r="B9" s="92"/>
+      <c r="A9" s="95"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6144,8 +5664,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="91"/>
-      <c r="B10" s="91"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6186,8 +5706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6208,604 +5728,272 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="94"/>
+      <c r="A1" s="96" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="97"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="96"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="99"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="78" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C3" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="F3" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="79" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="78" t="s">
         <v>80</v>
-      </c>
-      <c r="E3" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="78" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="L3" s="78" t="s">
-        <v>108</v>
       </c>
       <c r="M3" s="80" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="81">
-        <v>1</v>
-      </c>
-      <c r="B4" s="81" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="81" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="F4" s="81" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="83" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="I4" s="81" t="s">
-        <v>116</v>
-      </c>
-      <c r="J4" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="K4" s="82" t="s">
-        <v>118</v>
-      </c>
-      <c r="L4" s="81" t="s">
-        <v>119</v>
-      </c>
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="81"/>
       <c r="M4" s="82"/>
     </row>
-    <row r="5" spans="1:13" ht="82.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="84">
-        <v>2</v>
-      </c>
-      <c r="B5" s="81" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="81" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="82" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="85" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="85" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="H5" s="87" t="s">
-        <v>123</v>
-      </c>
-      <c r="I5" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="J5" s="82" t="s">
-        <v>118</v>
-      </c>
-      <c r="K5" s="82" t="s">
-        <v>118</v>
-      </c>
-      <c r="L5" s="81" t="s">
-        <v>119</v>
-      </c>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="84"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="81"/>
       <c r="M5" s="84"/>
     </row>
-    <row r="6" spans="1:13" ht="82.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="84">
-        <v>3</v>
-      </c>
-      <c r="B6" s="81" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="81" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="85" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="85" t="s">
-        <v>126</v>
-      </c>
-      <c r="F6" s="85" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="H6" s="87" t="s">
-        <v>127</v>
-      </c>
-      <c r="I6" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="J6" s="82" t="s">
-        <v>118</v>
-      </c>
-      <c r="K6" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="L6" s="81" t="s">
-        <v>119</v>
-      </c>
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="84"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="81"/>
       <c r="M6" s="84"/>
     </row>
     <row r="7" spans="1:13" ht="226.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="101">
-        <v>1</v>
-      </c>
-      <c r="B7" s="101" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="101" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="101" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" s="102" t="s">
-        <v>131</v>
-      </c>
-      <c r="F7" s="101" t="s">
-        <v>132</v>
-      </c>
-      <c r="G7" s="103" t="s">
-        <v>133</v>
-      </c>
-      <c r="H7" s="103" t="s">
-        <v>134</v>
-      </c>
-      <c r="I7" s="101" t="s">
-        <v>135</v>
-      </c>
-      <c r="J7" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="K7" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="L7" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="M7" s="103" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="330" x14ac:dyDescent="0.15">
-      <c r="A8" s="101">
-        <v>2</v>
-      </c>
-      <c r="B8" s="101" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="101" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="101" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" s="102" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="101" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="103" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" s="103" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" s="101" t="s">
-        <v>135</v>
-      </c>
-      <c r="J8" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="K8" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="L8" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="M8" s="103" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="330" x14ac:dyDescent="0.15">
-      <c r="A9" s="101">
-        <v>3</v>
-      </c>
-      <c r="B9" s="101" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="101" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="101" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" s="102" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="101" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" s="103" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="103" t="s">
-        <v>134</v>
-      </c>
-      <c r="I9" s="101" t="s">
-        <v>135</v>
-      </c>
-      <c r="J9" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="K9" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="L9" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="M9" s="103" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="330" x14ac:dyDescent="0.15">
-      <c r="A10" s="101">
-        <v>4</v>
-      </c>
-      <c r="B10" s="101" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="101" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="101" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="102" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" s="101" t="s">
-        <v>132</v>
-      </c>
-      <c r="G10" s="103" t="s">
-        <v>133</v>
-      </c>
-      <c r="H10" s="103" t="s">
-        <v>134</v>
-      </c>
-      <c r="I10" s="101" t="s">
-        <v>135</v>
-      </c>
-      <c r="J10" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="K10" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="L10" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="M10" s="103" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="330" x14ac:dyDescent="0.15">
-      <c r="A11" s="101">
-        <v>5</v>
-      </c>
-      <c r="B11" s="101" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="101" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="102" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" s="101" t="s">
-        <v>132</v>
-      </c>
-      <c r="G11" s="103" t="s">
-        <v>133</v>
-      </c>
-      <c r="H11" s="103" t="s">
-        <v>134</v>
-      </c>
-      <c r="I11" s="101" t="s">
-        <v>135</v>
-      </c>
-      <c r="J11" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="K11" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="L11" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="M11" s="103" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="330" x14ac:dyDescent="0.15">
-      <c r="A12" s="101">
-        <v>6</v>
-      </c>
-      <c r="B12" s="101" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="101" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="101" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="102" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="101" t="s">
-        <v>132</v>
-      </c>
-      <c r="G12" s="103" t="s">
-        <v>133</v>
-      </c>
-      <c r="H12" s="103" t="s">
-        <v>134</v>
-      </c>
-      <c r="I12" s="101" t="s">
-        <v>135</v>
-      </c>
-      <c r="J12" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="K12" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="L12" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="M12" s="103" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="330" x14ac:dyDescent="0.15">
-      <c r="A13" s="101">
-        <v>7</v>
-      </c>
-      <c r="B13" s="101" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="101" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="101" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" s="102" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="101" t="s">
-        <v>132</v>
-      </c>
-      <c r="G13" s="103" t="s">
-        <v>133</v>
-      </c>
-      <c r="H13" s="103" t="s">
-        <v>134</v>
-      </c>
-      <c r="I13" s="101" t="s">
-        <v>135</v>
-      </c>
-      <c r="J13" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="K13" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="L13" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="M13" s="103" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="330" x14ac:dyDescent="0.15">
-      <c r="A14" s="101">
-        <v>8</v>
-      </c>
-      <c r="B14" s="101" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="101" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="101" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="102" t="s">
-        <v>131</v>
-      </c>
-      <c r="F14" s="101" t="s">
-        <v>132</v>
-      </c>
-      <c r="G14" s="103" t="s">
-        <v>133</v>
-      </c>
-      <c r="H14" s="103" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" s="101" t="s">
-        <v>135</v>
-      </c>
-      <c r="J14" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="K14" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="L14" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="M14" s="103" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="330" x14ac:dyDescent="0.15">
-      <c r="A15" s="101">
-        <v>9</v>
-      </c>
-      <c r="B15" s="101" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="101" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="101" t="s">
-        <v>144</v>
-      </c>
-      <c r="E15" s="102" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15" s="101" t="s">
-        <v>132</v>
-      </c>
-      <c r="G15" s="103" t="s">
-        <v>133</v>
-      </c>
-      <c r="H15" s="103" t="s">
-        <v>134</v>
-      </c>
-      <c r="I15" s="101" t="s">
-        <v>135</v>
-      </c>
-      <c r="J15" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="K15" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="L15" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="M15" s="103" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="330" x14ac:dyDescent="0.15">
-      <c r="A16" s="101">
-        <v>10</v>
-      </c>
-      <c r="B16" s="101" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="101" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="101" t="s">
-        <v>145</v>
-      </c>
-      <c r="E16" s="102" t="s">
-        <v>131</v>
-      </c>
-      <c r="F16" s="101" t="s">
-        <v>132</v>
-      </c>
-      <c r="G16" s="103" t="s">
-        <v>133</v>
-      </c>
-      <c r="H16" s="103" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" s="101" t="s">
-        <v>135</v>
-      </c>
-      <c r="J16" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="K16" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="L16" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="M16" s="103" t="s">
-        <v>139</v>
-      </c>
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="90"/>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="90"/>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="88"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="90"/>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="88"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="90"/>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="88"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="90"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="88"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="90"/>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="88"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="90"/>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="88"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="90"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="88"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="90"/>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="88"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6848,73 +6036,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="97" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="98"/>
+      <c r="A1" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>20</v>
@@ -7162,73 +6350,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="97" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="98"/>
+      <c r="A1" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>20</v>
@@ -7476,73 +6664,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="97" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="98"/>
+      <c r="A1" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>20</v>
@@ -7787,28 +6975,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">

--- a/VersionRecords/Version 5.2.0.8_beta 20161215/版本Bug和特性计划及评审表v5.2.0.8.xlsx
+++ b/VersionRecords/Version 5.2.0.8_beta 20161215/版本Bug和特性计划及评审表v5.2.0.8.xlsx
@@ -29,12 +29,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="5" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="103">
   <si>
     <t>No</t>
   </si>
@@ -279,14 +279,86 @@
   </si>
   <si>
     <t>技术经理</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+  </si>
+  <si>
+    <t>紧急</t>
+  </si>
+  <si>
+    <t>账单欠款总额和分类欠款总额相加不一致</t>
+  </si>
+  <si>
+    <t>New Features</t>
+  </si>
+  <si>
+    <t>mogoroom-papp</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>张海涛</t>
+  </si>
+  <si>
+    <t>野帝组</t>
+  </si>
+  <si>
+    <t>许倩</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>账单收款详情，账单项目名称显示修改</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+首页租约统计计数修改</t>
+  </si>
+  <si>
+    <t>黄展明</t>
+  </si>
+  <si>
+    <t>续租的租约,不支持查看提示</t>
+  </si>
+  <si>
+    <t>蒙先铭</t>
+  </si>
+  <si>
+    <t>房源分配到人</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PCBS</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑良杰，李亚林</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丁组</t>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -298,6 +370,7 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -305,6 +378,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -312,12 +386,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -325,6 +401,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -332,12 +409,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -345,35 +424,41 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -381,12 +466,14 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -399,24 +486,20 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -695,7 +778,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -927,37 +1010,34 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -984,16 +1064,16 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1395,7 +1475,7 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="Q2" sqref="Q2:Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1490,119 +1570,279 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="54"/>
+      <c r="A2" s="51">
+        <v>1</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="54">
+        <v>42719</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="54">
+        <v>42719</v>
+      </c>
       <c r="K2" s="53"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="62"/>
+      <c r="L2" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" s="54">
+        <v>42720</v>
+      </c>
+      <c r="Q2" s="62" t="s">
+        <v>102</v>
+      </c>
       <c r="R2" s="59"/>
       <c r="S2" s="59"/>
       <c r="T2" s="67"/>
       <c r="U2" s="68"/>
       <c r="V2" s="69"/>
     </row>
-    <row r="3" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
+    <row r="3" spans="1:22" s="46" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A3" s="51">
+        <v>2</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="54">
+        <v>42719</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="54">
+        <v>42719</v>
+      </c>
       <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="62"/>
+      <c r="L3" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="O3" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3" s="54">
+        <v>42720</v>
+      </c>
+      <c r="Q3" s="62" t="s">
+        <v>102</v>
+      </c>
       <c r="R3" s="59"/>
       <c r="S3" s="59"/>
       <c r="T3" s="67"/>
       <c r="U3" s="70"/>
       <c r="V3" s="69"/>
     </row>
-    <row r="4" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
+    <row r="4" spans="1:22" s="46" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A4" s="51">
+        <v>3</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="54">
+        <v>42719</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="54">
+        <v>42719</v>
+      </c>
       <c r="K4" s="53"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="62"/>
+      <c r="L4" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="P4" s="54">
+        <v>42720</v>
+      </c>
+      <c r="Q4" s="62" t="s">
+        <v>102</v>
+      </c>
       <c r="R4" s="59"/>
       <c r="S4" s="59"/>
       <c r="T4" s="67"/>
       <c r="U4" s="68"/>
       <c r="V4" s="69"/>
     </row>
-    <row r="5" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="54"/>
+    <row r="5" spans="1:22" s="46" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A5" s="51">
+        <v>4</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="54">
+        <v>42719</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="54">
+        <v>42719</v>
+      </c>
       <c r="K5" s="53"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="62"/>
+      <c r="L5" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="M5" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="P5" s="54">
+        <v>42720</v>
+      </c>
+      <c r="Q5" s="62" t="s">
+        <v>102</v>
+      </c>
       <c r="R5" s="59"/>
       <c r="S5" s="59"/>
       <c r="T5" s="67"/>
       <c r="U5" s="70"/>
       <c r="V5" s="69"/>
     </row>
-    <row r="6" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54"/>
+    <row r="6" spans="1:22" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="51">
+        <v>5</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="54">
+        <v>42716</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="54">
+        <v>42716</v>
+      </c>
       <c r="K6" s="53"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="62"/>
+      <c r="L6" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="N6" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O6" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" s="54">
+        <v>42720</v>
+      </c>
+      <c r="Q6" s="62" t="s">
+        <v>102</v>
+      </c>
       <c r="R6" s="59"/>
       <c r="S6" s="59"/>
       <c r="T6" s="67"/>
@@ -5298,7 +5538,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576 L3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
@@ -5491,19 +5731,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5541,10 +5781,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="93">
+      <c r="A3" s="92">
         <v>1</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="92" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="20"/>
@@ -5562,8 +5802,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21" t="s">
         <v>52</v>
@@ -5579,10 +5819,10 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="93">
+      <c r="A5" s="92">
         <v>2</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="92" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="20"/>
@@ -5600,8 +5840,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="95"/>
-      <c r="B6" s="95"/>
+      <c r="A6" s="94"/>
+      <c r="B6" s="94"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21" t="s">
         <v>56</v>
@@ -5617,8 +5857,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="95"/>
-      <c r="B7" s="95"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21" t="s">
         <v>58</v>
@@ -5634,8 +5874,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="95"/>
-      <c r="B8" s="95"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21" t="s">
         <v>59</v>
@@ -5651,8 +5891,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="95"/>
-      <c r="B9" s="95"/>
+      <c r="A9" s="94"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5664,8 +5904,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="94"/>
-      <c r="B10" s="94"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5728,272 +5968,272 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="97"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="99"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="98"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="F3" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="79" t="s">
+      <c r="G3" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="78" t="s">
+      <c r="H3" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="78" t="s">
+      <c r="I3" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="78" t="s">
+      <c r="J3" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="78" t="s">
+      <c r="K3" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="78" t="s">
+      <c r="L3" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="M3" s="80" t="s">
+      <c r="M3" s="79" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="81"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="82"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="81"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="84"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="84"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="83"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="84"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="84"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="83"/>
     </row>
     <row r="7" spans="1:13" ht="226.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="88"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="90"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="89"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="90"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="89"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="88"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="90"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="89"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="88"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="90"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="89"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="88"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="90"/>
+      <c r="A11" s="87"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="89"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="90"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="89"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="88"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="90"/>
+      <c r="A13" s="87"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="89"/>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="88"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="90"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="89"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="88"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="90"/>
+      <c r="A15" s="87"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="89"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="88"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="90"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6036,36 +6276,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="101"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="100"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6350,36 +6590,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="101"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="100"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6664,36 +6904,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="101"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="100"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
